--- a/KJK/2021/logisztika.xlsx
+++ b/KJK/2021/logisztika.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web\BME Tanterv\bme_tanterv\KJK\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5305838A-C67A-4481-A25A-A8AD9E6F9ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD96B307-88F2-4DFB-B61E-0EC346E995F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7B1C1474-8287-4743-8A4D-3CB10B6C5967}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C4CFD6DD-3E20-44C9-A212-CC6846AE1DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="logisztika" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <t>Félévközi jegy</t>
   </si>
   <si>
-    <t>Mérnöki alapismeretek</t>
+    <t>Mérnöki alapismeretek / Mérnöki alapok</t>
   </si>
   <si>
     <t>KOVRA190</t>
@@ -229,7 +229,7 @@
     <t>KOKAA138</t>
   </si>
   <si>
-    <t>KOKAA146,KOKAA139~,TE90AX53$,</t>
+    <t>KOKAA139~,TE90AX53$,</t>
   </si>
   <si>
     <t>Logisztikai információs rendszerek</t>
@@ -421,10 +421,10 @@
     <t>Jelmagyarázat:</t>
   </si>
   <si>
+    <t>Aláírás elegendő</t>
+  </si>
+  <si>
     <t>~</t>
-  </si>
-  <si>
-    <t>Aláírás elegendő</t>
   </si>
   <si>
     <t>Ajánlott előkövetelmény</t>
@@ -1296,11 +1296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8F7BC0-263F-49E9-A2BC-1B48B746DE67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23C566D-0DFA-4751-9510-3CC3D7CB9B92}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A51" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
         <v>134</v>
-      </c>
-      <c r="B52" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
